--- a/static/uploads/mau/kpi/Kpi report sample.xlsx
+++ b/static/uploads/mau/kpi/Kpi report sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\mau\kpi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F1AB04-0170-4937-85FE-2DB475E66EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3711FB6C-E5EE-4476-8EAB-FD96E0F05710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E6E2E6C4-8F89-4A2F-B168-9877B39E544D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="KPI" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$B$2:$V$322</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$2:$U$321</definedName>
     <definedName name="KPI_Line_NT1">#REF!</definedName>
     <definedName name="KPI_Line_NT2">#REF!</definedName>
     <definedName name="Line_NT1">#REF!</definedName>
@@ -882,378 +882,379 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23AF7F6-35F9-463F-B2F3-0EDA321D2B71}">
   <sheetPr codeName="Sh_Data"/>
-  <dimension ref="A1:CE1381"/>
+  <dimension ref="A1:CD1380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BU16" sqref="BU16"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="65" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.875" style="1" customWidth="1"/>
-    <col min="76" max="83" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="69" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15.875" style="1" customWidth="1"/>
+    <col min="75" max="82" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="24.75" customHeight="1">
-      <c r="H1" s="1"/>
-      <c r="J1" s="7" t="s">
+    <row r="1" spans="1:82" ht="24.75" customHeight="1">
+      <c r="G1" s="1"/>
+      <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
       <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
       <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="AL1" s="7"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="AQ1" s="7"/>
       <c r="AR1" s="7"/>
       <c r="AS1" s="7"/>
       <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="AV1" s="7"/>
       <c r="AW1" s="7"/>
       <c r="AX1" s="7"/>
       <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="BA1" s="7"/>
       <c r="BB1" s="7"/>
       <c r="BC1" s="7"/>
       <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="BF1" s="7"/>
       <c r="BG1" s="7"/>
       <c r="BH1" s="7"/>
       <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="BK1" s="7"/>
       <c r="BL1" s="7"/>
       <c r="BM1" s="7"/>
       <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BP1" s="7"/>
       <c r="BQ1" s="7"/>
       <c r="BR1" s="7"/>
       <c r="BS1" s="7"/>
-      <c r="BT1" s="7"/>
     </row>
-    <row r="2" spans="1:83" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:82" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV2" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="BV2" s="2"/>
       <c r="BW2" s="2"/>
       <c r="BX2" s="2"/>
       <c r="BY2" s="2"/>
@@ -1262,1814 +1263,1590 @@
       <c r="CB2" s="2"/>
       <c r="CC2" s="2"/>
       <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
     </row>
-    <row r="3" spans="1:83">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:82">
+      <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="1">
         <v>345</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="4">
+        <v>598000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>612000</v>
+      </c>
+      <c r="K3" s="4">
+        <v>621000</v>
+      </c>
+      <c r="L3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="M3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="N3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="O3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="R3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="S3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="T3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="W3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="X3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="AW3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="BA3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="BC3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="BF3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="BG3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="BL3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="BM3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO3" s="4">
+        <v>85429</v>
+      </c>
+      <c r="BP3" s="4">
+        <v>87429</v>
+      </c>
+      <c r="BQ3" s="4">
+        <v>88715</v>
+      </c>
+      <c r="BR3" s="4">
+        <v>88000</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT3" s="4">
+        <f>BR3*12</f>
+        <v>1056000</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1">
+        <v>345</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="BA4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="BB4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="BC4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="BD4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="BF4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="BG4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="BH4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="BI4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="BK4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="BL4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="BM4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO4" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="BP4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="BQ4" s="5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="BR4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="BS4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="BU4" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1">
+        <v>345</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BA5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="BC5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="BD5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BF5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="BG5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="BH5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="BI5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BK5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="BL5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="BM5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="BN5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BP5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="BQ5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="BR5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="BS5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="BU5" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1">
+        <v>345</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>1200</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:82">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13217</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="4">
-        <v>598000</v>
-      </c>
-      <c r="K3" s="4">
-        <v>612000</v>
-      </c>
-      <c r="L3" s="4">
-        <v>621000</v>
-      </c>
-      <c r="M3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="N3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="O3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="P3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="H8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:82">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1">
+        <v>13217</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="S3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="T3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="U3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="V3" s="4" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="W3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="X3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AA3" s="4" t="s">
+      <c r="V9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AB3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AA9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AG3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AF9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AL3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="AO3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AK9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AQ3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="AR3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="AS3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="AT3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AP9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AV3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="AW3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="AX3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="AY3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AU9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BA3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="BB3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="BC3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="BD3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="BE3" s="4" t="s">
+      <c r="AZ9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BF3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="BG3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="BH3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="BI3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BE9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BK3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="BL3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="BM3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="BN3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BJ9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BP3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="BQ3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="BR3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="BS3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BO9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BU3" s="4">
-        <f>BS3*12</f>
-        <v>1056000</v>
-      </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BT9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU9" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:83">
-      <c r="B4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="1">
-        <v>345</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="AM4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="AN4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AO4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="AR4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="AS4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AT4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AU4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="AW4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="AX4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AY4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AZ4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="BB4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="BC4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="BD4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="BE4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="BG4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="BH4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="BI4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="BJ4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BK4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="BL4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="BM4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="BN4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="BO4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="BQ4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="BR4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="BS4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="BT4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="BV4" s="5" t="s">
-        <v>96</v>
-      </c>
+    <row r="10" spans="1:82">
+      <c r="G10" s="1"/>
     </row>
-    <row r="5" spans="1:83">
-      <c r="B5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1">
-        <v>345</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AM5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AO5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AR5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AS5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AT5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AU5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AW5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AX5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AY5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AZ5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="BB5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="BC5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="BD5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="BE5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="BG5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="BH5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="BI5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="BJ5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="BL5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="BM5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="BN5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="BO5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="BQ5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="BR5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="BS5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="BT5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BU5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="BV5" s="5" t="s">
-        <v>100</v>
-      </c>
+    <row r="11" spans="1:82">
+      <c r="D11"/>
+      <c r="G11" s="1"/>
+      <c r="H11"/>
+      <c r="L11"/>
+      <c r="P11"/>
+      <c r="T11"/>
+      <c r="X11"/>
+      <c r="AB11"/>
+      <c r="AF11"/>
+      <c r="AJ11"/>
+      <c r="AN11"/>
+      <c r="AR11"/>
+      <c r="AV11"/>
+      <c r="AZ11"/>
+      <c r="BD11"/>
+      <c r="BH11"/>
+      <c r="BL11"/>
+      <c r="BP11"/>
+      <c r="BT11"/>
     </row>
-    <row r="6" spans="1:83">
-      <c r="B6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="1">
-        <v>345</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="12" spans="1:82">
+      <c r="G12" s="1"/>
     </row>
-    <row r="7" spans="1:83">
-      <c r="B7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="1">
-        <v>13217</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="BT7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BU7" s="1">
-        <v>1200</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>96</v>
-      </c>
+    <row r="13" spans="1:82">
+      <c r="G13" s="1"/>
     </row>
-    <row r="8" spans="1:83">
-      <c r="B8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13217</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R8" s="1">
-        <v>2</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="W8" s="1">
-        <v>2</v>
-      </c>
-      <c r="X8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>2</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>2</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK8" s="1">
-        <v>2</v>
-      </c>
-      <c r="BL8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BU8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="1" t="s">
-        <v>100</v>
-      </c>
+    <row r="14" spans="1:82">
+      <c r="G14" s="1"/>
     </row>
-    <row r="9" spans="1:83">
-      <c r="B9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="1">
-        <v>13217</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BR9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BS9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BT9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BV9" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:83">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:83">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10</v>
-      </c>
-      <c r="L11" s="1">
-        <v>11</v>
-      </c>
-      <c r="M11">
-        <v>12</v>
-      </c>
-      <c r="N11" s="1">
-        <v>13</v>
-      </c>
-      <c r="O11" s="1">
-        <v>14</v>
-      </c>
-      <c r="P11" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
-      </c>
-      <c r="R11" s="1">
-        <v>17</v>
-      </c>
-      <c r="S11" s="1">
-        <v>18</v>
-      </c>
-      <c r="T11" s="1">
-        <v>19</v>
-      </c>
-      <c r="U11">
-        <v>20</v>
-      </c>
-      <c r="V11" s="1">
-        <v>21</v>
-      </c>
-      <c r="W11" s="1">
-        <v>22</v>
-      </c>
-      <c r="X11" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y11">
-        <v>24</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>26</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC11">
-        <v>28</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>29</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG11">
-        <v>32</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK11">
-        <v>36</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>37</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>38</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>39</v>
-      </c>
-      <c r="AO11">
-        <v>40</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>41</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>42</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>43</v>
-      </c>
-      <c r="AS11">
-        <v>44</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>45</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>46</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>47</v>
-      </c>
-      <c r="AW11">
-        <v>48</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>49</v>
-      </c>
-      <c r="AY11" s="1">
-        <v>50</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>51</v>
-      </c>
-      <c r="BA11">
-        <v>52</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>53</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>54</v>
-      </c>
-      <c r="BD11" s="1">
-        <v>55</v>
-      </c>
-      <c r="BE11">
-        <v>56</v>
-      </c>
-      <c r="BF11" s="1">
-        <v>57</v>
-      </c>
-      <c r="BG11" s="1">
-        <v>58</v>
-      </c>
-      <c r="BH11" s="1">
-        <v>59</v>
-      </c>
-      <c r="BI11">
-        <v>60</v>
-      </c>
-      <c r="BJ11" s="1">
-        <v>61</v>
-      </c>
-      <c r="BK11" s="1">
-        <v>62</v>
-      </c>
-      <c r="BL11" s="1">
-        <v>63</v>
-      </c>
-      <c r="BM11">
-        <v>64</v>
-      </c>
-      <c r="BN11" s="1">
-        <v>65</v>
-      </c>
-      <c r="BO11" s="1">
-        <v>66</v>
-      </c>
-      <c r="BP11" s="1">
-        <v>67</v>
-      </c>
-      <c r="BQ11">
-        <v>68</v>
-      </c>
-      <c r="BR11" s="1">
-        <v>69</v>
-      </c>
-      <c r="BS11" s="1">
-        <v>70</v>
-      </c>
-      <c r="BT11" s="1">
-        <v>71</v>
-      </c>
-      <c r="BU11">
-        <v>72</v>
-      </c>
-      <c r="BV11" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:83">
-      <c r="E12"/>
-      <c r="H12" s="1"/>
-      <c r="I12"/>
-      <c r="M12"/>
-      <c r="Q12"/>
-      <c r="U12"/>
-      <c r="Y12"/>
-      <c r="AC12"/>
-      <c r="AG12"/>
-      <c r="AK12"/>
-      <c r="AO12"/>
-      <c r="AS12"/>
-      <c r="AW12"/>
-      <c r="BA12"/>
-      <c r="BE12"/>
-      <c r="BI12"/>
-      <c r="BM12"/>
-      <c r="BQ12"/>
-      <c r="BU12"/>
-    </row>
-    <row r="13" spans="1:83">
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:83">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:83">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:83" s="1" customFormat="1"/>
+    <row r="15" spans="1:82" s="1" customFormat="1"/>
+    <row r="16" spans="1:82" s="1" customFormat="1"/>
     <row r="17" s="1" customFormat="1"/>
     <row r="18" s="1" customFormat="1"/>
     <row r="19" s="1" customFormat="1"/>
@@ -4434,24 +4211,23 @@
     <row r="1378" s="1" customFormat="1"/>
     <row r="1379" s="1" customFormat="1"/>
     <row r="1380" s="1" customFormat="1"/>
-    <row r="1381" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="BP1:BT1"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BE1:BI1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q3:Q10 V3:V10 AA3:AA10 AF3:AF10 AK3:AK10 AP3:AP10 AU3:AU10 AZ3:AZ10 BE3:BE10 BJ3:BJ10 BO3:BO10 BT3:BT10 BT13:BT1048576 BO13:BO1048576 BJ13:BJ1048576 BE13:BE1048576 AZ13:AZ1048576 AU13:AU1048576 AP13:AP1048576 AK13:AK1048576 AF13:AF1048576 AA13:AA1048576 V13:V1048576 Q13:Q1048576">
+  <conditionalFormatting sqref="P3:P10 U3:U10 Z3:Z10 AE3:AE10 AJ3:AJ10 AO3:AO10 AT3:AT10 AY3:AY10 BD3:BD10 BI3:BI10 BN3:BN10 BS3:BS10 BS12:BS1048576 BN12:BN1048576 BI12:BI1048576 BD12:BD1048576 AY12:AY1048576 AT12:AT1048576 AO12:AO1048576 AJ12:AJ1048576 AE12:AE1048576 Z12:Z1048576 U12:U1048576 P12:P1048576">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Purple"</formula>
     </cfRule>
@@ -4465,7 +4241,7 @@
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV3:BV10 BV13:BV1048576">
+  <conditionalFormatting sqref="BU3:BU10 BU12:BU1048576">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Purple"</formula>
     </cfRule>
@@ -4480,7 +4256,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA13:AA1048576 AF13:AF1048576 AK13:AK1048576 AP13:AP1048576 AU13:AU1048576 AZ13:AZ1048576 BE13:BE1048576 BJ13:BJ1048576 BO13:BO1048576 BT13:BT1048576 BV13:BV1048576 Q13:Q1048576 BV3:BV10 BT3:BT10 BO3:BO10 BJ3:BJ10 BE3:BE10 AZ3:AZ10 AU3:AU10 AP3:AP10 AK3:AK10 AF3:AF10 AA3:AA10 V3:V10 Q3:Q10 V13:V1048576" xr:uid="{529A1FF1-FDA3-4D67-996A-59AF1ADA26A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z12:Z1048576 AE12:AE1048576 AJ12:AJ1048576 AO12:AO1048576 AT12:AT1048576 AY12:AY1048576 BD12:BD1048576 BI12:BI1048576 BN12:BN1048576 BS12:BS1048576 BU12:BU1048576 P12:P1048576 BU3:BU10 BS3:BS10 BN3:BN10 BI3:BI10 BD3:BD10 AY3:AY10 AT3:AT10 AO3:AO10 AJ3:AJ10 AE3:AE10 Z3:Z10 U3:U10 P3:P10 U12:U1048576" xr:uid="{529A1FF1-FDA3-4D67-996A-59AF1ADA26A9}">
       <formula1>"Grey,Red,Green,Purple"</formula1>
     </dataValidation>
   </dataValidations>

--- a/static/uploads/mau/kpi/Kpi report sample.xlsx
+++ b/static/uploads/mau/kpi/Kpi report sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\mau\kpi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3711FB6C-E5EE-4476-8EAB-FD96E0F05710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24765B67-8389-4C20-9E9C-1B02DD18249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E6E2E6C4-8F89-4A2F-B168-9877B39E544D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="KPI" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$2:$U$321</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$2:$U$316</definedName>
     <definedName name="KPI_Line_NT1">#REF!</definedName>
     <definedName name="KPI_Line_NT2">#REF!</definedName>
     <definedName name="Line_NT1">#REF!</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="109">
   <si>
     <t>TARGET FULL YEAR</t>
   </si>
@@ -329,73 +329,48 @@
     <t>Red</t>
   </si>
   <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQC Quality </t>
-  </si>
-  <si>
-    <t>FQC Report</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Process Compliance</t>
-  </si>
-  <si>
-    <t>Process Audit Ranking</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Audit Report</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>Vũ Thị Hương Lan</t>
-  </si>
-  <si>
-    <t>QAD + MMD +FQC</t>
-  </si>
-  <si>
-    <t>Customer Claim</t>
-  </si>
-  <si>
-    <t>Internal Store Finding</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>&gt;$1500</t>
-  </si>
-  <si>
-    <t>&lt;$1500</t>
-  </si>
-  <si>
-    <t>Number of Claim</t>
-  </si>
-  <si>
-    <t>UQ Report by Dec</t>
-  </si>
-  <si>
-    <t>Factory Score ABC</t>
-  </si>
-  <si>
-    <t>Customer Ranking</t>
+    <t>598,000</t>
+  </si>
+  <si>
+    <t>612,000</t>
+  </si>
+  <si>
+    <t>621,000</t>
+  </si>
+  <si>
+    <t>85,429</t>
+  </si>
+  <si>
+    <t>87,429</t>
+  </si>
+  <si>
+    <t>88,715</t>
+  </si>
+  <si>
+    <t>88,000</t>
+  </si>
+  <si>
+    <t>1,056,000</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>67%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -443,7 +418,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,16 +427,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,11 +861,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23AF7F6-35F9-463F-B2F3-0EDA321D2B71}">
   <sheetPr codeName="Sh_Data"/>
-  <dimension ref="A1:CD1380"/>
+  <dimension ref="A1:CD1375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -897,7 +876,7 @@
     <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="7.625" style="1" bestFit="1" customWidth="1"/>
@@ -944,95 +923,95 @@
   <sheetData>
     <row r="1" spans="1:82" ht="24.75" customHeight="1">
       <c r="G1" s="1"/>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7" t="s">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7" t="s">
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7" t="s">
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7" t="s">
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7" t="s">
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7" t="s">
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7" t="s">
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7" t="s">
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7" t="s">
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
-      <c r="BS1" s="7"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
     </row>
     <row r="2" spans="1:82" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1264,1587 +1243,504 @@
       <c r="CC2" s="2"/>
       <c r="CD2" s="2"/>
     </row>
-    <row r="3" spans="1:82">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:82" s="8" customFormat="1">
+      <c r="A3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>345</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="4">
-        <v>598000</v>
-      </c>
-      <c r="J3" s="4">
-        <v>612000</v>
-      </c>
-      <c r="K3" s="4">
-        <v>621000</v>
-      </c>
-      <c r="L3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="M3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="N3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="O3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="I3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="R3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="S3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="T3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="U3" s="4" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="V3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="W3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="X3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="Z3" s="4" t="s">
+      <c r="V3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AA3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AA3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AF3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AF3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AK3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AK3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AP3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="AQ3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="AR3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="AS3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AP3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AU3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="AV3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="AW3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="AX3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AU3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AZ3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="BA3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="BB3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="BC3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="BD3" s="4" t="s">
+      <c r="AZ3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="BE3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="BF3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="BG3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="BH3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BE3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="BJ3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="BK3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="BL3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="BM3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BJ3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="BO3" s="4">
-        <v>85429</v>
-      </c>
-      <c r="BP3" s="4">
-        <v>87429</v>
-      </c>
-      <c r="BQ3" s="4">
-        <v>88715</v>
-      </c>
-      <c r="BR3" s="4">
-        <v>88000</v>
-      </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BO3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="BS3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="BT3" s="4">
-        <f>BR3*12</f>
-        <v>1056000</v>
-      </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BT3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU3" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
     </row>
-    <row r="4" spans="1:82">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:82" s="8" customFormat="1">
+      <c r="A4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>345</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="I4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="Q4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="Z4" s="5" t="s">
+      <c r="V4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AA4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AA4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AF4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AF4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AK4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="AM4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AN4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AO4" s="5" t="s">
+      <c r="AK4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AP4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="AQ4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="AR4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AS4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AP4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AU4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="AV4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="AW4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AX4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="AY4" s="5" t="s">
+      <c r="AU4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="BA4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="BB4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="BC4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="BD4" s="5" t="s">
+      <c r="AZ4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="BF4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="BG4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="BH4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="BI4" s="5" t="s">
+      <c r="BE4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="BJ4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="BK4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="BL4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="BM4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="BN4" s="5" t="s">
+      <c r="BJ4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BK4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BN4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="BO4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="BP4" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="BQ4" s="5">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="BR4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="BS4" s="5" t="s">
+      <c r="BO4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BS4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="BT4" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="BU4" s="5" t="s">
+      <c r="BT4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BU4" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
     </row>
     <row r="5" spans="1:82">
-      <c r="A5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="1">
-        <v>345</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AM5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AQ5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AR5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AS5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AT5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="AV5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="AW5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="AX5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AY5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="BA5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="BB5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="BC5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="BD5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="BF5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="BG5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="BH5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="BI5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="BK5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="BL5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="BM5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="BN5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="BP5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="BQ5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="BR5" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="BS5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT5" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="BU5" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:82">
-      <c r="A6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="1">
-        <v>345</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BU6" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="D6"/>
+      <c r="G6" s="1"/>
+      <c r="H6"/>
+      <c r="L6"/>
+      <c r="P6"/>
+      <c r="T6"/>
+      <c r="X6"/>
+      <c r="AB6"/>
+      <c r="AF6"/>
+      <c r="AJ6"/>
+      <c r="AN6"/>
+      <c r="AR6"/>
+      <c r="AV6"/>
+      <c r="AZ6"/>
+      <c r="BD6"/>
+      <c r="BH6"/>
+      <c r="BL6"/>
+      <c r="BP6"/>
+      <c r="BT6"/>
     </row>
     <row r="7" spans="1:82">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1">
-        <v>13217</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="1">
-        <v>1300</v>
-      </c>
-      <c r="BS7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT7" s="1">
-        <v>1200</v>
-      </c>
-      <c r="BU7" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:82">
-      <c r="A8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="1">
-        <v>13217</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>2</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="V8" s="1">
-        <v>2</v>
-      </c>
-      <c r="W8" s="1">
-        <v>1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>2</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ8" s="1">
-        <v>2</v>
-      </c>
-      <c r="BK8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:82">
-      <c r="A9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="1">
-        <v>13217</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BS9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BU9" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:82">
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:82">
-      <c r="D11"/>
-      <c r="G11" s="1"/>
-      <c r="H11"/>
-      <c r="L11"/>
-      <c r="P11"/>
-      <c r="T11"/>
-      <c r="X11"/>
-      <c r="AB11"/>
-      <c r="AF11"/>
-      <c r="AJ11"/>
-      <c r="AN11"/>
-      <c r="AR11"/>
-      <c r="AV11"/>
-      <c r="AZ11"/>
-      <c r="BD11"/>
-      <c r="BH11"/>
-      <c r="BL11"/>
-      <c r="BP11"/>
-      <c r="BT11"/>
-    </row>
-    <row r="12" spans="1:82">
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:82">
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:82">
-      <c r="G14" s="1"/>
-    </row>
+    <row r="10" spans="1:82" s="1" customFormat="1"/>
+    <row r="11" spans="1:82" s="1" customFormat="1"/>
+    <row r="12" spans="1:82" s="1" customFormat="1"/>
+    <row r="13" spans="1:82" s="1" customFormat="1"/>
+    <row r="14" spans="1:82" s="1" customFormat="1"/>
     <row r="15" spans="1:82" s="1" customFormat="1"/>
     <row r="16" spans="1:82" s="1" customFormat="1"/>
     <row r="17" s="1" customFormat="1"/>
@@ -4206,13 +3102,14 @@
     <row r="1373" s="1" customFormat="1"/>
     <row r="1374" s="1" customFormat="1"/>
     <row r="1375" s="1" customFormat="1"/>
-    <row r="1376" s="1" customFormat="1"/>
-    <row r="1377" s="1" customFormat="1"/>
-    <row r="1378" s="1" customFormat="1"/>
-    <row r="1379" s="1" customFormat="1"/>
-    <row r="1380" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="BO1:BS1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -4220,14 +3117,8 @@
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
   </mergeCells>
-  <conditionalFormatting sqref="P3:P10 U3:U10 Z3:Z10 AE3:AE10 AJ3:AJ10 AO3:AO10 AT3:AT10 AY3:AY10 BD3:BD10 BI3:BI10 BN3:BN10 BS3:BS10 BS12:BS1048576 BN12:BN1048576 BI12:BI1048576 BD12:BD1048576 AY12:AY1048576 AT12:AT1048576 AO12:AO1048576 AJ12:AJ1048576 AE12:AE1048576 Z12:Z1048576 U12:U1048576 P12:P1048576">
+  <conditionalFormatting sqref="BS7:BS1048576 BN7:BN1048576 BI7:BI1048576 BD7:BD1048576 AY7:AY1048576 AT7:AT1048576 AO7:AO1048576 AJ7:AJ1048576 AE7:AE1048576 Z7:Z1048576 U7:U1048576 P7:P1048576 P3:P5 Z3:Z5 AE3:AE5 AJ3:AJ5 AO3:AO5 AT3:AT5 AY3:AY5 BD3:BD5 BI3:BI5 BN3:BN5 BS3:BS5 BU3:BU5 U3:U5">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Purple"</formula>
     </cfRule>
@@ -4241,7 +3132,7 @@
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU3:BU10 BU12:BU1048576">
+  <conditionalFormatting sqref="BU7:BU1048576">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Purple"</formula>
     </cfRule>
@@ -4256,7 +3147,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z12:Z1048576 AE12:AE1048576 AJ12:AJ1048576 AO12:AO1048576 AT12:AT1048576 AY12:AY1048576 BD12:BD1048576 BI12:BI1048576 BN12:BN1048576 BS12:BS1048576 BU12:BU1048576 P12:P1048576 BU3:BU10 BS3:BS10 BN3:BN10 BI3:BI10 BD3:BD10 AY3:AY10 AT3:AT10 AO3:AO10 AJ3:AJ10 AE3:AE10 Z3:Z10 U3:U10 P3:P10 U12:U1048576" xr:uid="{529A1FF1-FDA3-4D67-996A-59AF1ADA26A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z1048576 AE7:AE1048576 AJ7:AJ1048576 AO7:AO1048576 AT7:AT1048576 AY7:AY1048576 BD7:BD1048576 BI7:BI1048576 BN7:BN1048576 BS7:BS1048576 BU7:BU1048576 P7:P1048576 U7:U1048576 P3:P5 BU3:BU5 Z3:Z5 AE3:AE5 AJ3:AJ5 AO3:AO5 AT3:AT5 AY3:AY5 BD3:BD5 BI3:BI5 BN3:BN5 BS3:BS5 U3:U5" xr:uid="{529A1FF1-FDA3-4D67-996A-59AF1ADA26A9}">
       <formula1>"Grey,Red,Green,Purple"</formula1>
     </dataValidation>
   </dataValidations>

--- a/static/uploads/mau/kpi/Kpi report sample.xlsx
+++ b/static/uploads/mau/kpi/Kpi report sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\mau\kpi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24765B67-8389-4C20-9E9C-1B02DD18249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8640172C-8131-4325-ADA1-E20A0A8E8E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E6E2E6C4-8F89-4A2F-B168-9877B39E544D}"/>
   </bookViews>
@@ -430,9 +430,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +438,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,7 +865,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -923,95 +923,95 @@
   <sheetData>
     <row r="1" spans="1:82" ht="24.75" customHeight="1">
       <c r="G1" s="1"/>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5" t="s">
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5" t="s">
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5" t="s">
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5" t="s">
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5" t="s">
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5" t="s">
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5" t="s">
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BP1" s="5"/>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="9"/>
     </row>
     <row r="2" spans="1:82" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1243,465 +1243,465 @@
       <c r="CC2" s="2"/>
       <c r="CD2" s="2"/>
     </row>
-    <row r="3" spans="1:82" s="8" customFormat="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:82" s="7" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>345</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AG3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AK3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AL3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AM3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AN3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AO3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AP3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AR3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AS3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AT3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AU3" s="7" t="s">
+      <c r="AU3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AV3" s="7" t="s">
+      <c r="AV3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AW3" s="7" t="s">
+      <c r="AW3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AX3" s="7" t="s">
+      <c r="AX3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AY3" s="7" t="s">
+      <c r="AY3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AZ3" s="7" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="BA3" s="7" t="s">
+      <c r="BA3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="BB3" s="7" t="s">
+      <c r="BB3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BC3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BD3" s="7" t="s">
+      <c r="BD3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BE3" s="7" t="s">
+      <c r="BE3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="BF3" s="7" t="s">
+      <c r="BF3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="BG3" s="7" t="s">
+      <c r="BG3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BH3" s="7" t="s">
+      <c r="BH3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BI3" s="7" t="s">
+      <c r="BI3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BJ3" s="7" t="s">
+      <c r="BJ3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="BK3" s="7" t="s">
+      <c r="BK3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="BL3" s="7" t="s">
+      <c r="BL3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BM3" s="7" t="s">
+      <c r="BM3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BN3" s="7" t="s">
+      <c r="BN3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BO3" s="7" t="s">
+      <c r="BO3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="BP3" s="7" t="s">
+      <c r="BP3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="BQ3" s="7" t="s">
+      <c r="BQ3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="BR3" s="7" t="s">
+      <c r="BR3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BS3" s="7" t="s">
+      <c r="BS3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BT3" s="7" t="s">
+      <c r="BT3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="BU3" s="7" t="s">
+      <c r="BU3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BV3" s="6"/>
-      <c r="BW3" s="6"/>
-      <c r="BX3" s="6"/>
-      <c r="BY3" s="6"/>
-      <c r="BZ3" s="6"/>
-      <c r="CA3" s="6"/>
-      <c r="CB3" s="6"/>
-      <c r="CC3" s="6"/>
-      <c r="CD3" s="6"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
     </row>
-    <row r="4" spans="1:82" s="8" customFormat="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:82" s="7" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>345</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AF4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AG4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AH4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AI4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AK4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AL4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AM4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AN4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AO4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AP4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AR4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AS4" s="9" t="s">
+      <c r="AS4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AT4" s="9" t="s">
+      <c r="AT4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AU4" s="9" t="s">
+      <c r="AU4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AV4" s="9" t="s">
+      <c r="AV4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AW4" s="9" t="s">
+      <c r="AW4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AX4" s="9" t="s">
+      <c r="AX4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AY4" s="9" t="s">
+      <c r="AY4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="9" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="BA4" s="9" t="s">
+      <c r="BA4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="BB4" s="9" t="s">
+      <c r="BB4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BC4" s="9" t="s">
+      <c r="BC4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BD4" s="9" t="s">
+      <c r="BD4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BE4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="BF4" s="9" t="s">
+      <c r="BF4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="BG4" s="9" t="s">
+      <c r="BG4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BH4" s="9" t="s">
+      <c r="BH4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BI4" s="9" t="s">
+      <c r="BI4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="BJ4" s="9" t="s">
+      <c r="BJ4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="BK4" s="9" t="s">
+      <c r="BK4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="BL4" s="9" t="s">
+      <c r="BL4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BM4" s="9" t="s">
+      <c r="BM4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BN4" s="9" t="s">
+      <c r="BN4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="BO4" s="9" t="s">
+      <c r="BO4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="BP4" s="9" t="s">
+      <c r="BP4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="BQ4" s="9" t="s">
+      <c r="BQ4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BR4" s="9" t="s">
+      <c r="BR4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BS4" s="9" t="s">
+      <c r="BS4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="BT4" s="9" t="s">
+      <c r="BT4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BU4" s="9" t="s">
+      <c r="BU4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
-      <c r="BY4" s="6"/>
-      <c r="BZ4" s="6"/>
-      <c r="CA4" s="6"/>
-      <c r="CB4" s="6"/>
-      <c r="CC4" s="6"/>
-      <c r="CD4" s="6"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
     </row>
     <row r="5" spans="1:82">
       <c r="G5" s="1"/>
@@ -3104,12 +3104,6 @@
     <row r="1375" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="BO1:BS1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -3117,6 +3111,12 @@
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
   </mergeCells>
   <conditionalFormatting sqref="BS7:BS1048576 BN7:BN1048576 BI7:BI1048576 BD7:BD1048576 AY7:AY1048576 AT7:AT1048576 AO7:AO1048576 AJ7:AJ1048576 AE7:AE1048576 Z7:Z1048576 U7:U1048576 P7:P1048576 P3:P5 Z3:Z5 AE3:AE5 AJ3:AJ5 AO3:AO5 AT3:AT5 AY3:AY5 BD3:BD5 BI3:BI5 BN3:BN5 BS3:BS5 BU3:BU5 U3:U5">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
